--- a/export_test_wrangled.xlsx
+++ b/export_test_wrangled.xlsx
@@ -28,85 +28,85 @@
     <t>AS_EN16798[CA_3</t>
   </si>
   <si>
-    <t>1-(AS_CTE[CA_X/AS_EN16798[CA_2)</t>
+    <t>1-(AS_EN16798[CA_2/AS_CTE[CA_X)</t>
   </si>
   <si>
     <t>AS_CTE[CA_X - AS_EN16798[CA_2</t>
   </si>
   <si>
-    <t>1-(AS_CTE[CA_X/AS_EN16798[CA_3)</t>
+    <t>1-(AS_EN16798[CA_3/AS_CTE[CA_X)</t>
   </si>
   <si>
     <t>AS_CTE[CA_X - AS_EN16798[CA_3</t>
   </si>
   <si>
-    <t>1-(AS_CTE[CA_X/AS_EN16798[CA_1)</t>
+    <t>1-(AS_EN16798[CA_1/AS_CTE[CA_X)</t>
   </si>
   <si>
     <t>AS_CTE[CA_X - AS_EN16798[CA_1</t>
   </si>
   <si>
-    <t>BLOCK1:ZONE1_Cooling Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK1:ZONE1_Heating Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK1:ZONE1_Total Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK1:ZONE2_Cooling Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK1:ZONE2_Heating Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK1:ZONE2_Total Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK1_Total_Cooling Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>BLOCK1_Total_Heating Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>BLOCK1_Total_Total Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>BLOCK2:ZONE1_Cooling Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK2:ZONE1_Heating Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK2:ZONE1_Total Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK2:ZONE2_Cooling Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK2:ZONE2_Heating Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK2:ZONE2_Total Energy Demand (Wh)</t>
-  </si>
-  <si>
-    <t>BLOCK2_Total_Cooling Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>BLOCK2_Total_Heating Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>BLOCK2_Total_Total Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>Building_Total_Cooling Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>Building_Total_Heating Energy Demand (Wh) [summed]</t>
-  </si>
-  <si>
-    <t>Building_Total_Total Energy Demand (Wh) [summed]</t>
+    <t>BLOCK1:ZONE1_Cooling Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK1:ZONE1_Heating Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK1:ZONE1_Total Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK1:ZONE2_Cooling Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK1:ZONE2_Heating Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK1:ZONE2_Total Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK1_Total_Cooling Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK1_Total_Heating Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK1_Total_Total Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK2:ZONE1_Cooling Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK2:ZONE1_Heating Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK2:ZONE1_Total Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK2:ZONE2_Cooling Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK2:ZONE2_Heating Energy Demand</t>
+  </si>
+  <si>
+    <t>BLOCK2:ZONE2_Total Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK2_Total_Cooling Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK2_Total_Heating Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>BLOCK2_Total_Total Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>Building_Total_Cooling Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>Building_Total_Heating Energy Demand (kWh) [summed]</t>
+  </si>
+  <si>
+    <t>Building_Total_Total Energy Demand (kWh) [summed]</t>
   </si>
 </sst>
 </file>
@@ -577,34 +577,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9439374.645564187</v>
+        <v>9439.374645564187</v>
       </c>
       <c r="C4">
-        <v>7079916.681971995</v>
+        <v>7079.916681971995</v>
       </c>
       <c r="D4">
-        <v>3840562.700343024</v>
+        <v>3840.562700343024</v>
       </c>
       <c r="E4">
-        <v>2289862.909428578</v>
+        <v>2289.862909428578</v>
       </c>
       <c r="F4">
         <v>0.5931337779724839</v>
       </c>
       <c r="G4">
-        <v>5598811.945221163</v>
+        <v>5598.811945221163</v>
       </c>
       <c r="H4">
         <v>0.7574137063725248</v>
       </c>
       <c r="I4">
-        <v>7149511.736135609</v>
+        <v>7149.511736135609</v>
       </c>
       <c r="J4">
         <v>0.2499591394755122</v>
       </c>
       <c r="K4">
-        <v>2359457.963592192</v>
+        <v>2359.457963592192</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -682,34 +682,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2824462.816121063</v>
+        <v>2824.462816121063</v>
       </c>
       <c r="C7">
-        <v>1958229.914872833</v>
+        <v>1958.229914872833</v>
       </c>
       <c r="D7">
-        <v>1024874.248186802</v>
+        <v>1024.874248186802</v>
       </c>
       <c r="E7">
-        <v>615614.4301976678</v>
+        <v>615.6144301976678</v>
       </c>
       <c r="F7">
-        <v>0.637143657074481</v>
+        <v>0.6371436570744808</v>
       </c>
       <c r="G7">
-        <v>1799588.567934261</v>
+        <v>1799.588567934261</v>
       </c>
       <c r="H7">
         <v>0.7820419420344455</v>
       </c>
       <c r="I7">
-        <v>2208848.385923395</v>
+        <v>2208.848385923395</v>
       </c>
       <c r="J7">
         <v>0.3066894335815189</v>
       </c>
       <c r="K7">
-        <v>866232.9012482306</v>
+        <v>866.2329012482305</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,34 +717,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>11571237.77672357</v>
+        <v>11571.23777672358</v>
       </c>
       <c r="C8">
-        <v>6436884.71943325</v>
+        <v>6436.88471943325</v>
       </c>
       <c r="D8">
-        <v>3974149.669885324</v>
+        <v>3974.149669885324</v>
       </c>
       <c r="E8">
-        <v>2631867.765240426</v>
+        <v>2631.867765240426</v>
       </c>
       <c r="F8">
         <v>0.6565493038368264</v>
       </c>
       <c r="G8">
-        <v>7597088.106838251</v>
+        <v>7597.088106838251</v>
       </c>
       <c r="H8">
         <v>0.7725508872927468</v>
       </c>
       <c r="I8">
-        <v>8939370.011483148</v>
+        <v>8939.37001148315</v>
       </c>
       <c r="J8">
         <v>0.44371683966416</v>
       </c>
       <c r="K8">
-        <v>5134353.057290325</v>
+        <v>5134.353057290326</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,34 +752,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>692599.6849616768</v>
+        <v>692.5996849616769</v>
       </c>
       <c r="C9">
-        <v>2601261.877411578</v>
+        <v>2601.261877411578</v>
       </c>
       <c r="D9">
-        <v>891287.2786445015</v>
+        <v>891.2872786445015</v>
       </c>
       <c r="E9">
-        <v>273609.5743858197</v>
+        <v>273.6095743858197</v>
       </c>
       <c r="F9">
         <v>-0.2868721976011561</v>
       </c>
       <c r="G9">
-        <v>-198687.5936828246</v>
+        <v>-198.6875936828246</v>
       </c>
       <c r="H9">
         <v>0.6049527882748615</v>
       </c>
       <c r="I9">
-        <v>418990.1105758571</v>
+        <v>418.9901105758572</v>
       </c>
       <c r="J9">
         <v>-2.755794196694605</v>
       </c>
       <c r="K9">
-        <v>-1908662.192449901</v>
+        <v>-1908.662192449901</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,34 +787,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12263837.46168525</v>
+        <v>12263.83746168525</v>
       </c>
       <c r="C10">
-        <v>9038146.596844828</v>
+        <v>9038.146596844828</v>
       </c>
       <c r="D10">
-        <v>4865436.948529826</v>
+        <v>4865.436948529826</v>
       </c>
       <c r="E10">
-        <v>2905477.339626246</v>
+        <v>2905.477339626246</v>
       </c>
       <c r="F10">
-        <v>0.6032696157519659</v>
+        <v>0.6032696157519658</v>
       </c>
       <c r="G10">
-        <v>7398400.513155426</v>
+        <v>7398.400513155425</v>
       </c>
       <c r="H10">
-        <v>0.763085791971432</v>
+        <v>0.7630857919714319</v>
       </c>
       <c r="I10">
-        <v>9358360.122059006</v>
+        <v>9358.360122059004</v>
       </c>
       <c r="J10">
-        <v>0.2630245936411132</v>
+        <v>0.2630245936411131</v>
       </c>
       <c r="K10">
-        <v>3225690.864840424</v>
+        <v>3225.690864840422</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -892,34 +892,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4350014.040834464</v>
+        <v>4350.014040834464</v>
       </c>
       <c r="C13">
-        <v>3590083.721405004</v>
+        <v>3590.083721405004</v>
       </c>
       <c r="D13">
-        <v>1932663.90225297</v>
+        <v>1932.66390225297</v>
       </c>
       <c r="E13">
-        <v>1084651.289095226</v>
+        <v>1084.651289095226</v>
       </c>
       <c r="F13">
-        <v>0.5557108818245962</v>
+        <v>0.555710881824596</v>
       </c>
       <c r="G13">
-        <v>2417350.138581495</v>
+        <v>2417.350138581494</v>
       </c>
       <c r="H13">
         <v>0.7506556808981801</v>
       </c>
       <c r="I13">
-        <v>3265362.751739238</v>
+        <v>3265.362751739239</v>
       </c>
       <c r="J13">
         <v>0.1746960612760878</v>
       </c>
       <c r="K13">
-        <v>759930.31942946</v>
+        <v>759.9303194294598</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -997,34 +997,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7926703.765632819</v>
+        <v>7926.703765632819</v>
       </c>
       <c r="C16">
-        <v>5946184.382879116</v>
+        <v>5946.184382879115</v>
       </c>
       <c r="D16">
-        <v>3287399.175608296</v>
+        <v>3287.399175608296</v>
       </c>
       <c r="E16">
-        <v>2064942.615396101</v>
+        <v>2064.942615396101</v>
       </c>
       <c r="F16">
         <v>0.5852753839671401</v>
       </c>
       <c r="G16">
-        <v>4639304.590024523</v>
+        <v>4639.304590024523</v>
       </c>
       <c r="H16">
         <v>0.7394954225047605</v>
       </c>
       <c r="I16">
-        <v>5861761.150236718</v>
+        <v>5861.761150236718</v>
       </c>
       <c r="J16">
         <v>0.2498540933673445</v>
       </c>
       <c r="K16">
-        <v>1980519.382753704</v>
+        <v>1980.519382753704</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1032,34 +1032,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>11414676.11725491</v>
+        <v>11414.67611725491</v>
       </c>
       <c r="C17">
-        <v>6272126.102695134</v>
+        <v>6272.126102695133</v>
       </c>
       <c r="D17">
-        <v>4040254.980686059</v>
+        <v>4040.254980686059</v>
       </c>
       <c r="E17">
-        <v>2742900.34067349</v>
+        <v>2742.900340673491</v>
       </c>
       <c r="F17">
         <v>0.6460473394791606</v>
       </c>
       <c r="G17">
-        <v>7374421.13656885</v>
+        <v>7374.42113656885</v>
       </c>
       <c r="H17">
         <v>0.7597040588363952</v>
       </c>
       <c r="I17">
-        <v>8671775.776581418</v>
+        <v>8671.775776581419</v>
       </c>
       <c r="J17">
         <v>0.4505208874727579</v>
       </c>
       <c r="K17">
-        <v>5142550.014559776</v>
+        <v>5142.550014559775</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1067,34 +1067,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>862041.6892123751</v>
+        <v>862.0416892123751</v>
       </c>
       <c r="C18">
-        <v>3264142.001588985</v>
+        <v>3264.142001588985</v>
       </c>
       <c r="D18">
-        <v>1179808.097175206</v>
+        <v>1179.808097175206</v>
       </c>
       <c r="E18">
-        <v>406693.5638178358</v>
+        <v>406.6935638178358</v>
       </c>
       <c r="F18">
         <v>-0.3686206965850642</v>
       </c>
       <c r="G18">
-        <v>-317766.4079628312</v>
+        <v>-317.7664079628312</v>
       </c>
       <c r="H18">
         <v>0.5282205386268255</v>
       </c>
       <c r="I18">
-        <v>455348.1253945393</v>
+        <v>455.3481253945394</v>
       </c>
       <c r="J18">
         <v>-2.786524529424263</v>
       </c>
       <c r="K18">
-        <v>-2402100.31237661</v>
+        <v>-2402.10031237661</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1102,34 +1102,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>12276717.80646728</v>
+        <v>12276.71780646728</v>
       </c>
       <c r="C19">
-        <v>9536268.104284119</v>
+        <v>9536.26810428412</v>
       </c>
       <c r="D19">
-        <v>5220063.077861265</v>
+        <v>5220.063077861265</v>
       </c>
       <c r="E19">
-        <v>3149593.904491326</v>
+        <v>3149.593904491326</v>
       </c>
       <c r="F19">
         <v>0.5747997827960682</v>
       </c>
       <c r="G19">
-        <v>7056654.728606018</v>
+        <v>7056.654728606019</v>
       </c>
       <c r="H19">
         <v>0.7434498410615789</v>
       </c>
       <c r="I19">
-        <v>9127123.901975958</v>
+        <v>9127.123901975958</v>
       </c>
       <c r="J19">
         <v>0.2232233195699519</v>
       </c>
       <c r="K19">
-        <v>2740449.702183165</v>
+        <v>2740.449702183165</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1137,34 +1137,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>22985913.89397848</v>
+        <v>22985.91389397848</v>
       </c>
       <c r="C20">
-        <v>12709010.82212838</v>
+        <v>12709.01082212838</v>
       </c>
       <c r="D20">
-        <v>8014404.650571384</v>
+        <v>8014.404650571383</v>
       </c>
       <c r="E20">
-        <v>5374768.105913918</v>
+        <v>5374.768105913918</v>
       </c>
       <c r="F20">
         <v>0.6513340871484392</v>
       </c>
       <c r="G20">
-        <v>14971509.2434071</v>
+        <v>14971.5092434071</v>
       </c>
       <c r="H20">
         <v>0.7661712242243315</v>
       </c>
       <c r="I20">
-        <v>17611145.78806457</v>
+        <v>17611.14578806456</v>
       </c>
       <c r="J20">
         <v>0.4470956917028344</v>
       </c>
       <c r="K20">
-        <v>10276903.0718501</v>
+        <v>10276.9030718501</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1172,34 +1172,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1554641.374174052</v>
+        <v>1554.641374174052</v>
       </c>
       <c r="C21">
-        <v>5865403.879000564</v>
+        <v>5865.403879000564</v>
       </c>
       <c r="D21">
-        <v>2071095.375819708</v>
+        <v>2071.095375819708</v>
       </c>
       <c r="E21">
-        <v>680303.1382036554</v>
+        <v>680.3031382036554</v>
       </c>
       <c r="F21">
         <v>-0.3322013746868386</v>
       </c>
       <c r="G21">
-        <v>-516454.0016456558</v>
+        <v>-516.454001645656</v>
       </c>
       <c r="H21">
         <v>0.5624050990119274</v>
       </c>
       <c r="I21">
-        <v>874338.2359703965</v>
+        <v>874.3382359703965</v>
       </c>
       <c r="J21">
         <v>-2.772834028759031</v>
       </c>
       <c r="K21">
-        <v>-4310762.504826512</v>
+        <v>-4310.762504826513</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1207,34 +1207,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>24540555.26815254</v>
+        <v>24540.55526815254</v>
       </c>
       <c r="C22">
-        <v>18574414.70112894</v>
+        <v>18574.41470112895</v>
       </c>
       <c r="D22">
-        <v>10085500.02639109</v>
+        <v>10085.50002639109</v>
       </c>
       <c r="E22">
-        <v>6055071.244117573</v>
+        <v>6055.071244117573</v>
       </c>
       <c r="F22">
         <v>0.5890272279421676</v>
       </c>
       <c r="G22">
-        <v>14455055.24176145</v>
+        <v>14455.05524176144</v>
       </c>
       <c r="H22">
-        <v>0.7532626634583314</v>
+        <v>0.7532626634583313</v>
       </c>
       <c r="I22">
-        <v>18485484.02403497</v>
+        <v>18485.48402403497</v>
       </c>
       <c r="J22">
-        <v>0.2431135115661438</v>
+        <v>0.2431135115661437</v>
       </c>
       <c r="K22">
-        <v>5966140.567023594</v>
+        <v>5966.140567023591</v>
       </c>
     </row>
   </sheetData>
